--- a/Documents/concept/PARTY BALL 아트 리소스.xlsx
+++ b/Documents/concept/PARTY BALL 아트 리소스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e19fefcdf149cc6/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Agis\Documents\concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{1CD5B1FF-5DFD-4B86-9C9C-71FDE7322BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA5E094-E061-48DE-8AC9-BD92F212C483}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AD581-6556-4122-80AB-A000AFC3C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0FFA574D-E0FD-424F-9815-A09FA8549D0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{0FFA574D-E0FD-424F-9815-A09FA8549D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleUI" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>게임 앱을 실행하고 나면 플레이어가 처음으로 마주하는 UI입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
     <t>(추가레벨이 생겼을 경우)
 물론 하나로는 안되겠지만 벽에다가 밝은 빛을 쏘는 느낌의 배경
 그리고 중앙에 원(공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네온으로 검정색 하얀색으로 색상만 변환해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,15 +831,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:colOff>529077</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>369794</xdr:rowOff>
+      <xdr:rowOff>465044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3163420</xdr:colOff>
+      <xdr:colOff>3367527</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1979519</xdr:rowOff>
+      <xdr:rowOff>2074769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -906,7 +910,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6577852" y="3753970"/>
+          <a:off x="6788363" y="3826008"/>
           <a:ext cx="2838450" cy="1609725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1152,6 +1156,67 @@
         <a:xfrm>
           <a:off x="13811250" y="14559643"/>
           <a:ext cx="2466975" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3735777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7" descr="파티용 조명기구 상품리스트 | 일광전구">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AE81A3-0C8B-4924-9C2B-D0A78E3753B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6553201" y="5981700"/>
+          <a:ext cx="3543300" cy="3583377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,15 +2009,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>993321</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>544286</xdr:rowOff>
+      <xdr:rowOff>249876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2412744</xdr:colOff>
+      <xdr:colOff>2615046</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1944656</xdr:rowOff>
+      <xdr:rowOff>2208632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1975,8 +2040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9252857" y="14654893"/>
-          <a:ext cx="1419423" cy="1400370"/>
+          <a:off x="8890413" y="14381512"/>
+          <a:ext cx="1985406" cy="1958756"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2328,7 +2393,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7552910" y="13530703"/>
+          <a:off x="7556272" y="13521178"/>
           <a:ext cx="629702" cy="721245"/>
           <a:chOff x="2389239" y="2286000"/>
           <a:chExt cx="1115966" cy="1278200"/>
@@ -2952,7 +3017,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7394510" y="11714484"/>
+          <a:off x="7397872" y="11703838"/>
           <a:ext cx="796990" cy="783437"/>
           <a:chOff x="948815" y="1939412"/>
           <a:chExt cx="2158176" cy="2086898"/>
@@ -3459,6 +3524,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1660805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="Award Winning Marketing Campaign - RJ Thieneman">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A40332-96D7-4A41-B637-5D8B92764493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9610725" y="6907900"/>
+          <a:ext cx="2181225" cy="1544230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3911,15 +4037,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DC377-22BF-45C3-B841-0054ED8EC5B8}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="58.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="38.375" customWidth="1"/>
     <col min="6" max="6" width="61.25" customWidth="1"/>
     <col min="7" max="7" width="59.625" customWidth="1"/>
@@ -3987,13 +4113,14 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="308.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4003,7 +4130,7 @@
       <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -4018,6 +4145,7 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
@@ -4068,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEEB1D3-8C60-4FAB-B764-C34069E2DB59}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4188,7 +4316,9 @@
         <v>34</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -4228,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99B713-852C-4D8A-8872-2ECF7502EEA0}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4237,7 +4367,9 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4325,7 +4457,6 @@
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">

--- a/Documents/concept/PARTY BALL 아트 리소스.xlsx
+++ b/Documents/concept/PARTY BALL 아트 리소스.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Agis\Documents\concept\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AD581-6556-4122-80AB-A000AFC3C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{0FFA574D-E0FD-424F-9815-A09FA8549D0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TitleUI" sheetId="1" r:id="rId1"/>
@@ -288,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +423,7 @@
         <xdr:cNvPr id="2" name="그래픽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A30E10-E990-45E6-A918-F8D2343185C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81A30E10-E990-45E6-A918-F8D2343185C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,7 +435,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -479,7 +473,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="클럽 일러스트 - PIXTA">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C11C542-52BA-4549-9904-7FE60A4B5977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C11C542-52BA-4549-9904-7FE60A4B5977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -540,7 +534,7 @@
         <xdr:cNvPr id="4" name="그림 3" descr="441,604 클럽일러스트, 벡터, 상업적 이미지사이트 - 123RF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33846F3F-727A-47F6-BD0C-177A611EE5BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33846F3F-727A-47F6-BD0C-177A611EE5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +595,7 @@
         <xdr:cNvPr id="6" name="TextBox 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E86225-9DC0-4BC2-BE7F-336F4E29FC19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03E86225-9DC0-4BC2-BE7F-336F4E29FC19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -747,7 +741,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AF175A-4692-477D-8A05-A6476914297F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2AF175A-4692-477D-8A05-A6476914297F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +790,7 @@
         <xdr:cNvPr id="22" name="그래픽 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93543F1A-2B1A-4C08-8AB5-A97E6BF0CF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93543F1A-2B1A-4C08-8AB5-A97E6BF0CF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,7 +802,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -846,7 +840,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="컴퓨터 아이콘 화살표, 뒤로 아이콘, 각도, 로고 png | PNGEgg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915932C4-FF7B-4178-9DF2-318E0ED56F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{915932C4-FF7B-4178-9DF2-318E0ED56F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +942,7 @@
         <xdr:cNvPr id="4" name="그림 3" descr="황금 그래픽 요소와 수직 어두운 음악 파티 배경 초대장에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6EA16E-FA1F-4710-B6CD-4A63E9AAEDDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC6EA16E-FA1F-4710-B6CD-4A63E9AAEDDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1003,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="황금 그래픽 요소와 수직 어두운 블루 음악 파티 배경 공연에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF73D1A6-86DB-4BD1-9B53-59F070DE8E58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF73D1A6-86DB-4BD1-9B53-59F070DE8E58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1064,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="화려한 번팅 플래그와 카니발 파티 어두운 배경 기에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0130367E-D189-4340-973E-9402FD4F52C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0130367E-D189-4340-973E-9402FD4F52C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1125,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="새 해 큰 강타! 빛나는 인사말. 어두운 배경과 원소 벡터 그리기 새 해 파티 초대 카드에 대 한 완벽 한. — 스톡 벡터 ©  chetananim #16346561">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F79233-E767-45DA-881F-08F968932F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F79233-E767-45DA-881F-08F968932F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1186,7 @@
         <xdr:cNvPr id="8" name="그림 7" descr="파티용 조명기구 상품리스트 | 일광전구">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AE81A3-0C8B-4924-9C2B-D0A78E3753B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5AE81A3-0C8B-4924-9C2B-D0A78E3753B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1252,7 @@
         <xdr:cNvPr id="3" name="그래픽 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56C1879-EE30-4E3D-8D93-3D89BFD7D10C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C56C1879-EE30-4E3D-8D93-3D89BFD7D10C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1264,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1308,7 +1302,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF5AF3A-5982-4155-ABB6-DB042D27E81D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF5AF3A-5982-4155-ABB6-DB042D27E81D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1459,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48DEB00-6C57-4148-9A96-2368CF8CEB3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F48DEB00-6C57-4148-9A96-2368CF8CEB3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1616,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2E5E3C-D304-464F-850C-905734E69F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF2E5E3C-D304-464F-850C-905734E69F9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1773,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D819F5-6767-4464-898A-5F24419246F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2D819F5-6767-4464-898A-5F24419246F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1930,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442D3D9D-403D-44F7-ABFC-8BD48D1D8285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{442D3D9D-403D-44F7-ABFC-8BD48D1D8285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1974,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293FAECB-4177-40DE-AEBA-0BCFBF915CDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{293FAECB-4177-40DE-AEBA-0BCFBF915CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2018,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678EE1A4-9505-4B46-A71C-9E860A47E3EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{678EE1A4-9505-4B46-A71C-9E860A47E3EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2062,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A97D50-6B8F-4481-BDE7-1B6C1B07FE7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70A97D50-6B8F-4481-BDE7-1B6C1B07FE7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2123,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B90E5DF-68E7-4009-A859-8F35BE29222E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B90E5DF-68E7-4009-A859-8F35BE29222E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2172,7 @@
         <xdr:cNvPr id="3" name="그래픽 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7BEDA4-7CFF-4ACA-97E3-F62622E58CE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A7BEDA4-7CFF-4ACA-97E3-F62622E58CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2184,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2228,7 +2222,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA38C1-81BB-444B-B728-6B62EEB56D44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76BA38C1-81BB-444B-B728-6B62EEB56D44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2379,7 @@
         <xdr:cNvPr id="5" name="그룹 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC18B9C-1A68-4781-A154-29D51863E4F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CC18B9C-1A68-4781-A154-29D51863E4F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2387,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7556272" y="13521178"/>
+          <a:off x="7537222" y="13530703"/>
           <a:ext cx="629702" cy="721245"/>
           <a:chOff x="2389239" y="2286000"/>
           <a:chExt cx="1115966" cy="1278200"/>
@@ -2407,7 +2401,7 @@
           <xdr:cNvPr id="6" name="이등변 삼각형 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5482C971-C7B7-43E9-8471-156959CFFDE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5482C971-C7B7-43E9-8471-156959CFFDE4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2550,7 +2544,7 @@
           <xdr:cNvPr id="7" name="이등변 삼각형 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEA0FAA-06C6-4A41-9C2F-E792FBA5BCF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FEA0FAA-06C6-4A41-9C2F-E792FBA5BCF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2693,7 +2687,7 @@
           <xdr:cNvPr id="8" name="이등변 삼각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9ADCA1-E1F0-48F7-8E20-5D976BD01832}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF9ADCA1-E1F0-48F7-8E20-5D976BD01832}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2852,7 +2846,7 @@
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49634CA-64EB-4587-B403-BA3FF141DA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49634CA-64EB-4587-B403-BA3FF141DA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3003,7 @@
         <xdr:cNvPr id="15" name="그룹 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3AEA51-35A8-406B-BD3E-584ABBE693FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F3AEA51-35A8-406B-BD3E-584ABBE693FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3011,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7397872" y="11703838"/>
+          <a:off x="7378822" y="11717173"/>
           <a:ext cx="796990" cy="783437"/>
           <a:chOff x="948815" y="1939412"/>
           <a:chExt cx="2158176" cy="2086898"/>
@@ -3028,7 +3022,7 @@
           <xdr:cNvPr id="16" name="직사각형 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780CF5D5-E07B-4BE3-8B23-8BEE82CECD7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{780CF5D5-E07B-4BE3-8B23-8BEE82CECD7B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3173,7 +3167,7 @@
           <xdr:cNvPr id="17" name="이등변 삼각형 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235C850A-98B4-4ACC-AE7F-8531E39B07E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{235C850A-98B4-4ACC-AE7F-8531E39B07E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3336,7 +3330,7 @@
         <xdr:cNvPr id="18" name="타원 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379413BA-6E6F-4027-96A9-0A0A4781F1D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{379413BA-6E6F-4027-96A9-0A0A4781F1D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3487,7 @@
         <xdr:cNvPr id="19" name="그래픽 16" descr="새로 고침 단색으로 채워진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75D8EFE-9228-42EE-9CCF-A8BB6C187296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C75D8EFE-9228-42EE-9CCF-A8BB6C187296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,13 +3496,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3546,7 +3540,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="Award Winning Marketing Campaign - RJ Thieneman">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A40332-96D7-4A41-B637-5D8B92764493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27A40332-96D7-4A41-B637-5D8B92764493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3687,7 +3681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3881,29 +3875,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC24F4-5DDF-4C34-B2B2-8E6ADD6E16F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="79.125" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="79.09765625" customWidth="1"/>
+    <col min="4" max="4" width="55.59765625" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3914,14 +3908,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -3930,7 +3924,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3947,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3960,7 +3954,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3973,7 +3967,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3986,7 +3980,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4001,25 +3995,25 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4034,24 +4028,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DC377-22BF-45C3-B841-0054ED8EC5B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="3" max="3" width="58.09765625" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="38.375" customWidth="1"/>
-    <col min="6" max="6" width="61.25" customWidth="1"/>
-    <col min="7" max="7" width="59.625" customWidth="1"/>
+    <col min="5" max="5" width="38.3984375" customWidth="1"/>
+    <col min="6" max="6" width="61.19921875" customWidth="1"/>
+    <col min="7" max="7" width="59.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4064,7 +4058,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4073,7 +4067,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4084,7 +4078,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4097,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4120,7 +4114,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="308.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="308.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4135,7 +4129,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="253.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="253.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4152,7 +4146,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4166,7 +4160,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4193,21 +4187,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEEB1D3-8C60-4FAB-B764-C34069E2DB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="30.8984375" customWidth="1"/>
     <col min="3" max="3" width="68.5" customWidth="1"/>
-    <col min="4" max="5" width="44.125" customWidth="1"/>
+    <col min="4" max="5" width="44.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4218,14 +4212,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4234,7 +4228,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4251,7 +4245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4264,7 +4258,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4279,7 +4273,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4292,7 +4286,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4305,7 +4299,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4333,7 +4327,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4355,24 +4349,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99B713-852C-4D8A-8872-2ECF7502EEA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="59.75" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="59.69921875" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="30.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4383,14 +4377,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4399,7 +4393,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,7 +4410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4431,7 +4425,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4444,7 +4438,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4458,7 +4452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4471,7 +4465,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4486,7 +4480,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4499,7 +4493,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4512,7 +4506,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>37</v>
       </c>
@@ -4526,12 +4520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2376FFCE-B3CA-48F9-BA77-3A9D1A11E413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/concept/PARTY BALL 아트 리소스.xlsx
+++ b/Documents/concept/PARTY BALL 아트 리소스.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Agis\Documents\concept\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B59A16D-0FDE-43B6-9A55-333701E10C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleUI" sheetId="1" r:id="rId1"/>
     <sheet name="StageSelectUI" sheetId="2" r:id="rId2"/>
     <sheet name="InGameUI" sheetId="3" r:id="rId3"/>
-    <sheet name="GameClearUI" sheetId="4" r:id="rId4"/>
-    <sheet name="GameOverUI" sheetId="6" r:id="rId5"/>
+    <sheet name="OptionUI" sheetId="7" r:id="rId4"/>
+    <sheet name="GameClearUI" sheetId="4" r:id="rId5"/>
+    <sheet name="GameOverUI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>게임 앱을 실행하고 나면 플레이어가 처음으로 마주하는 UI입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,11 +285,41 @@
     <t>네온으로 검정색 하얀색으로 색상만 변환해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>사실 Option UI라고 썼지만 SoundUI 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리가 나고 있을 때 떠있는 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리를 껐을 때 떠있는 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주변에 원과 아이콘을 흰색으로,
+홈화면 했던 것처럼
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 어두운 사각형 패널 부분을 검은색 끝이 둥근 패널로 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -355,13 +392,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +448,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +492,7 @@
         <xdr:cNvPr id="2" name="그래픽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81A30E10-E990-45E6-A918-F8D2343185C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A30E10-E990-45E6-A918-F8D2343185C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,7 +504,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -473,7 +542,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="클럽 일러스트 - PIXTA">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C11C542-52BA-4549-9904-7FE60A4B5977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C11C542-52BA-4549-9904-7FE60A4B5977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +603,7 @@
         <xdr:cNvPr id="4" name="그림 3" descr="441,604 클럽일러스트, 벡터, 상업적 이미지사이트 - 123RF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33846F3F-727A-47F6-BD0C-177A611EE5BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33846F3F-727A-47F6-BD0C-177A611EE5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -595,7 +664,7 @@
         <xdr:cNvPr id="6" name="TextBox 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03E86225-9DC0-4BC2-BE7F-336F4E29FC19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E86225-9DC0-4BC2-BE7F-336F4E29FC19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +810,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2AF175A-4692-477D-8A05-A6476914297F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AF175A-4692-477D-8A05-A6476914297F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +859,7 @@
         <xdr:cNvPr id="22" name="그래픽 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93543F1A-2B1A-4C08-8AB5-A97E6BF0CF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93543F1A-2B1A-4C08-8AB5-A97E6BF0CF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -802,7 +871,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -840,7 +909,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="컴퓨터 아이콘 화살표, 뒤로 아이콘, 각도, 로고 png | PNGEgg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{915932C4-FF7B-4178-9DF2-318E0ED56F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915932C4-FF7B-4178-9DF2-318E0ED56F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +1011,7 @@
         <xdr:cNvPr id="4" name="그림 3" descr="황금 그래픽 요소와 수직 어두운 음악 파티 배경 초대장에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC6EA16E-FA1F-4710-B6CD-4A63E9AAEDDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6EA16E-FA1F-4710-B6CD-4A63E9AAEDDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1072,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="황금 그래픽 요소와 수직 어두운 블루 음악 파티 배경 공연에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF73D1A6-86DB-4BD1-9B53-59F070DE8E58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF73D1A6-86DB-4BD1-9B53-59F070DE8E58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1133,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="화려한 번팅 플래그와 카니발 파티 어두운 배경 기에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0130367E-D189-4340-973E-9402FD4F52C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0130367E-D189-4340-973E-9402FD4F52C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1194,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="새 해 큰 강타! 빛나는 인사말. 어두운 배경과 원소 벡터 그리기 새 해 파티 초대 카드에 대 한 완벽 한. — 스톡 벡터 ©  chetananim #16346561">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F79233-E767-45DA-881F-08F968932F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F79233-E767-45DA-881F-08F968932F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1255,7 @@
         <xdr:cNvPr id="8" name="그림 7" descr="파티용 조명기구 상품리스트 | 일광전구">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5AE81A3-0C8B-4924-9C2B-D0A78E3753B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AE81A3-0C8B-4924-9C2B-D0A78E3753B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1321,7 @@
         <xdr:cNvPr id="3" name="그래픽 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C56C1879-EE30-4E3D-8D93-3D89BFD7D10C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56C1879-EE30-4E3D-8D93-3D89BFD7D10C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1333,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1302,7 +1371,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF5AF3A-5982-4155-ABB6-DB042D27E81D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF5AF3A-5982-4155-ABB6-DB042D27E81D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1528,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F48DEB00-6C57-4148-9A96-2368CF8CEB3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48DEB00-6C57-4148-9A96-2368CF8CEB3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1685,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF2E5E3C-D304-464F-850C-905734E69F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2E5E3C-D304-464F-850C-905734E69F9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1842,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2D819F5-6767-4464-898A-5F24419246F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D819F5-6767-4464-898A-5F24419246F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1999,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{442D3D9D-403D-44F7-ABFC-8BD48D1D8285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442D3D9D-403D-44F7-ABFC-8BD48D1D8285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2043,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{293FAECB-4177-40DE-AEBA-0BCFBF915CDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293FAECB-4177-40DE-AEBA-0BCFBF915CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2087,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{678EE1A4-9505-4B46-A71C-9E860A47E3EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678EE1A4-9505-4B46-A71C-9E860A47E3EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2131,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70A97D50-6B8F-4481-BDE7-1B6C1B07FE7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A97D50-6B8F-4481-BDE7-1B6C1B07FE7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2192,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B90E5DF-68E7-4009-A859-8F35BE29222E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B90E5DF-68E7-4009-A859-8F35BE29222E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,6 +2226,219 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4530436</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2961409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2767CA5-C0F8-4A06-9DDA-4E81FD5964BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="31064"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2684318" y="1004455"/>
+          <a:ext cx="4305300" cy="2788227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>547688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3143249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2984349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="컴퓨터 POST 부팅 중 비프음(삐 소리)으로 진단 | 대또의 지식나눔 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7B21E3-4C31-48FB-8FD3-5FAF99A00350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8643937" y="4691063"/>
+          <a:ext cx="2452687" cy="2436661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3571664</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2524124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA92BABA-2EF1-4E22-9649-2BBCFA37F30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8262938" y="7834312"/>
+          <a:ext cx="3262101" cy="2309812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1248207</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2679823</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3881438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F6B01C-7D34-45A5-9C9A-67E0C9D53FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201582" y="10572751"/>
+          <a:ext cx="1431616" cy="3595687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
@@ -2172,7 +2454,7 @@
         <xdr:cNvPr id="3" name="그래픽 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A7BEDA4-7CFF-4ACA-97E3-F62622E58CE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7BEDA4-7CFF-4ACA-97E3-F62622E58CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2466,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2222,7 +2504,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76BA38C1-81BB-444B-B728-6B62EEB56D44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA38C1-81BB-444B-B728-6B62EEB56D44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2661,7 @@
         <xdr:cNvPr id="5" name="그룹 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CC18B9C-1A68-4781-A154-29D51863E4F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC18B9C-1A68-4781-A154-29D51863E4F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2669,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7537222" y="13530703"/>
+          <a:off x="7556272" y="13521178"/>
           <a:ext cx="629702" cy="721245"/>
           <a:chOff x="2389239" y="2286000"/>
           <a:chExt cx="1115966" cy="1278200"/>
@@ -2401,7 +2683,7 @@
           <xdr:cNvPr id="6" name="이등변 삼각형 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5482C971-C7B7-43E9-8471-156959CFFDE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5482C971-C7B7-43E9-8471-156959CFFDE4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2544,7 +2826,7 @@
           <xdr:cNvPr id="7" name="이등변 삼각형 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FEA0FAA-06C6-4A41-9C2F-E792FBA5BCF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEA0FAA-06C6-4A41-9C2F-E792FBA5BCF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2687,7 +2969,7 @@
           <xdr:cNvPr id="8" name="이등변 삼각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF9ADCA1-E1F0-48F7-8E20-5D976BD01832}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9ADCA1-E1F0-48F7-8E20-5D976BD01832}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2846,7 +3128,7 @@
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49634CA-64EB-4587-B403-BA3FF141DA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49634CA-64EB-4587-B403-BA3FF141DA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3285,7 @@
         <xdr:cNvPr id="15" name="그룹 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F3AEA51-35A8-406B-BD3E-584ABBE693FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3AEA51-35A8-406B-BD3E-584ABBE693FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3293,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7378822" y="11717173"/>
+          <a:off x="7397872" y="11703838"/>
           <a:ext cx="796990" cy="783437"/>
           <a:chOff x="948815" y="1939412"/>
           <a:chExt cx="2158176" cy="2086898"/>
@@ -3022,7 +3304,7 @@
           <xdr:cNvPr id="16" name="직사각형 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{780CF5D5-E07B-4BE3-8B23-8BEE82CECD7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780CF5D5-E07B-4BE3-8B23-8BEE82CECD7B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3167,7 +3449,7 @@
           <xdr:cNvPr id="17" name="이등변 삼각형 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{235C850A-98B4-4ACC-AE7F-8531E39B07E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235C850A-98B4-4ACC-AE7F-8531E39B07E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3330,7 +3612,7 @@
         <xdr:cNvPr id="18" name="타원 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{379413BA-6E6F-4027-96A9-0A0A4781F1D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379413BA-6E6F-4027-96A9-0A0A4781F1D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3769,7 @@
         <xdr:cNvPr id="19" name="그래픽 16" descr="새로 고침 단색으로 채워진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C75D8EFE-9228-42EE-9CCF-A8BB6C187296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75D8EFE-9228-42EE-9CCF-A8BB6C187296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3784,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3540,7 +3822,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="Award Winning Marketing Campaign - RJ Thieneman">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27A40332-96D7-4A41-B637-5D8B92764493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A40332-96D7-4A41-B637-5D8B92764493}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3681,7 +3963,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3875,29 +4157,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="79.09765625" customWidth="1"/>
-    <col min="4" max="4" width="55.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="79.125" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3908,14 +4190,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -3924,7 +4206,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +4223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3954,7 +4236,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3967,7 +4249,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3980,7 +4262,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -3995,25 +4277,25 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4028,24 +4310,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="58.09765625" customWidth="1"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="38.3984375" customWidth="1"/>
-    <col min="6" max="6" width="61.19921875" customWidth="1"/>
-    <col min="7" max="7" width="59.59765625" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="61.25" customWidth="1"/>
+    <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4058,7 +4340,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4067,7 +4349,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4078,7 +4360,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4097,7 +4379,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4114,7 +4396,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="308.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="308.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4129,7 +4411,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="253.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="253.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4146,7 +4428,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4160,7 +4442,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4187,21 +4469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.8984375" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
     <col min="3" max="3" width="68.5" customWidth="1"/>
-    <col min="4" max="5" width="44.09765625" customWidth="1"/>
+    <col min="4" max="5" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4212,14 +4494,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4228,7 +4510,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +4527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4258,7 +4540,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4273,7 +4555,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4286,7 +4568,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4299,7 +4581,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4314,7 +4596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4327,7 +4609,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4349,24 +4631,136 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1EC8AE-7FB3-4339-BB97-F2384EA937A7}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="72.125" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="56.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="319.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="59.69921875" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="59.75" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="30.09765625" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4377,14 +4771,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4393,7 +4787,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4410,7 +4804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4425,7 +4819,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4438,7 +4832,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4452,7 +4846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4465,7 +4859,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4480,7 +4874,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4493,7 +4887,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4506,7 +4900,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>37</v>
       </c>
@@ -4519,13 +4913,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
